--- a/Assets/SaveData/ExcelFiles/EnemyInfo.xlsx
+++ b/Assets/SaveData/ExcelFiles/EnemyInfo.xlsx
@@ -4,8 +4,8 @@
   <workbookPr/>
   <sheets>
     <sheet state="visible" name="EnemyStatus" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="Stage1" sheetId="2" r:id="rId5"/>
-    <sheet state="visible" name="Stage2" sheetId="3" r:id="rId6"/>
+    <sheet state="visible" name="Stage_1_Enemy" sheetId="2" r:id="rId5"/>
+    <sheet state="visible" name="Stage_2_Enemy" sheetId="3" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -13,20 +13,32 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="14">
   <si>
     <t>int</t>
   </si>
   <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>key</t>
+  </si>
+  <si>
+    <t>serialNumber</t>
+  </si>
+  <si>
+    <t>level</t>
+  </si>
+  <si>
+    <t>posX</t>
+  </si>
+  <si>
+    <t>posY</t>
+  </si>
+  <si>
     <t>string</t>
   </si>
   <si>
-    <t>float</t>
-  </si>
-  <si>
-    <t>key</t>
-  </si>
-  <si>
     <t>name</t>
   </si>
   <si>
@@ -34,18 +46,6 @@
   </si>
   <si>
     <t>atk</t>
-  </si>
-  <si>
-    <t>serialNumber</t>
-  </si>
-  <si>
-    <t>level</t>
-  </si>
-  <si>
-    <t>posX</t>
-  </si>
-  <si>
-    <t>posY</t>
   </si>
   <si>
     <t>A</t>
@@ -322,11 +322,11 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>0</v>
@@ -336,17 +336,17 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>5</v>
+      <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -407,50 +407,50 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
       <c r="E1" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>9</v>
+      <c r="C2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="s">
-        <v>11</v>
+      <c r="A3" s="1">
+        <v>1.0</v>
       </c>
       <c r="B3" s="2">
         <v>101.0</v>
       </c>
-      <c r="C3" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D3" s="1">
+      <c r="C3" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="D3" s="2">
         <v>2.0</v>
       </c>
       <c r="E3" s="2">
@@ -458,8 +458,8 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="s">
-        <v>11</v>
+      <c r="A4" s="1">
+        <v>2.0</v>
       </c>
       <c r="B4" s="2">
         <v>101.0</v>
@@ -475,8 +475,8 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="s">
-        <v>11</v>
+      <c r="A5" s="1">
+        <v>3.0</v>
       </c>
       <c r="B5" s="2">
         <v>101.0</v>
@@ -492,8 +492,8 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="s">
-        <v>11</v>
+      <c r="A6" s="1">
+        <v>4.0</v>
       </c>
       <c r="B6" s="2">
         <v>101.0</v>
@@ -509,8 +509,8 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="2" t="s">
-        <v>11</v>
+      <c r="A7" s="1">
+        <v>5.0</v>
       </c>
       <c r="B7" s="2">
         <v>101.0</v>
@@ -541,45 +541,45 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>2</v>
-      </c>
       <c r="E1" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>7</v>
-      </c>
       <c r="C2" s="2" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="2">
-        <v>101.0</v>
+      <c r="A3" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="B3" s="1">
+        <v>102.0</v>
       </c>
       <c r="C3" s="2">
         <v>1.0</v>
@@ -592,11 +592,11 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="2">
-        <v>101.0</v>
+      <c r="A4" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="B4" s="1">
+        <v>102.0</v>
       </c>
       <c r="C4" s="2">
         <v>1.0</v>
@@ -609,11 +609,11 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="2">
-        <v>101.0</v>
+      <c r="A5" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="B5" s="1">
+        <v>102.0</v>
       </c>
       <c r="C5" s="2">
         <v>1.0</v>
@@ -626,11 +626,11 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="2">
-        <v>101.0</v>
+      <c r="A6" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="B6" s="1">
+        <v>102.0</v>
       </c>
       <c r="C6" s="2">
         <v>1.0</v>
@@ -643,11 +643,11 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="2">
-        <v>101.0</v>
+      <c r="A7" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="B7" s="1">
+        <v>102.0</v>
       </c>
       <c r="C7" s="2">
         <v>1.0</v>

--- a/Assets/SaveData/ExcelFiles/EnemyInfo.xlsx
+++ b/Assets/SaveData/ExcelFiles/EnemyInfo.xlsx
@@ -18,15 +18,27 @@
     <t>int</t>
   </si>
   <si>
+    <t>string</t>
+  </si>
+  <si>
     <t>float</t>
   </si>
   <si>
     <t>key</t>
   </si>
   <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>hp</t>
+  </si>
+  <si>
     <t>serialNumber</t>
   </si>
   <si>
+    <t>atk</t>
+  </si>
+  <si>
     <t>level</t>
   </si>
   <si>
@@ -36,22 +48,10 @@
     <t>posY</t>
   </si>
   <si>
-    <t>string</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>hp</t>
-  </si>
-  <si>
-    <t>atk</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>B</t>
+    <t>EnemyRed</t>
+  </si>
+  <si>
+    <t>EnemyBlue</t>
   </si>
   <si>
     <t>C</t>
@@ -326,7 +326,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>0</v>
@@ -337,27 +337,27 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2">
         <v>101.0</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="2">
-        <v>100.0</v>
+      <c r="C3" s="1">
+        <v>50.0</v>
       </c>
       <c r="D3" s="2">
         <v>10.0</v>
@@ -367,11 +367,11 @@
       <c r="A4" s="2">
         <v>102.0</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="2">
-        <v>50.0</v>
+      <c r="C4" s="1">
+        <v>100.0</v>
       </c>
       <c r="D4" s="2">
         <v>20.0</v>
@@ -417,27 +417,27 @@
         <v>0</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -450,11 +450,11 @@
       <c r="C3" s="2">
         <v>1.0</v>
       </c>
-      <c r="D3" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="E3" s="2">
-        <v>2.0</v>
+      <c r="D3" s="1">
+        <v>-4.0</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0.0</v>
       </c>
     </row>
     <row r="4">
@@ -467,11 +467,11 @@
       <c r="C4" s="2">
         <v>1.0</v>
       </c>
-      <c r="D4" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="E4" s="2">
-        <v>4.0</v>
+      <c r="D4" s="1">
+        <v>-2.0</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0.0</v>
       </c>
     </row>
     <row r="5">
@@ -484,11 +484,11 @@
       <c r="C5" s="2">
         <v>1.0</v>
       </c>
-      <c r="D5" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="E5" s="2">
-        <v>6.0</v>
+      <c r="D5" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0.0</v>
       </c>
     </row>
     <row r="6">
@@ -504,8 +504,8 @@
       <c r="D6" s="2">
         <v>2.0</v>
       </c>
-      <c r="E6" s="2">
-        <v>8.0</v>
+      <c r="E6" s="1">
+        <v>0.0</v>
       </c>
     </row>
     <row r="7">
@@ -518,11 +518,11 @@
       <c r="C7" s="2">
         <v>1.0</v>
       </c>
-      <c r="D7" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="E7" s="2">
-        <v>10.0</v>
+      <c r="D7" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0.0</v>
       </c>
     </row>
   </sheetData>
@@ -551,27 +551,27 @@
         <v>0</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -579,16 +579,16 @@
         <v>1.0</v>
       </c>
       <c r="B3" s="1">
-        <v>102.0</v>
+        <v>101.0</v>
       </c>
       <c r="C3" s="2">
         <v>1.0</v>
       </c>
-      <c r="D3" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="E3" s="2">
-        <v>2.0</v>
+      <c r="D3" s="1">
+        <v>-4.0</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0.0</v>
       </c>
     </row>
     <row r="4">
@@ -596,16 +596,16 @@
         <v>2.0</v>
       </c>
       <c r="B4" s="1">
-        <v>102.0</v>
+        <v>101.0</v>
       </c>
       <c r="C4" s="2">
         <v>1.0</v>
       </c>
-      <c r="D4" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="E4" s="2">
-        <v>4.0</v>
+      <c r="D4" s="1">
+        <v>-2.0</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0.0</v>
       </c>
     </row>
     <row r="5">
@@ -613,16 +613,16 @@
         <v>3.0</v>
       </c>
       <c r="B5" s="1">
-        <v>102.0</v>
+        <v>101.0</v>
       </c>
       <c r="C5" s="2">
         <v>1.0</v>
       </c>
-      <c r="D5" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="E5" s="2">
-        <v>6.0</v>
+      <c r="D5" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0.0</v>
       </c>
     </row>
     <row r="6">
@@ -635,11 +635,11 @@
       <c r="C6" s="2">
         <v>1.0</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="1">
         <v>2.0</v>
       </c>
-      <c r="E6" s="2">
-        <v>8.0</v>
+      <c r="E6" s="1">
+        <v>0.0</v>
       </c>
     </row>
     <row r="7">
@@ -652,11 +652,11 @@
       <c r="C7" s="2">
         <v>1.0</v>
       </c>
-      <c r="D7" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="E7" s="2">
-        <v>10.0</v>
+      <c r="D7" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0.0</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/SaveData/ExcelFiles/EnemyInfo.xlsx
+++ b/Assets/SaveData/ExcelFiles/EnemyInfo.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="15">
   <si>
     <t>int</t>
   </si>
@@ -27,25 +27,28 @@
     <t>key</t>
   </si>
   <si>
+    <t>serialNumber</t>
+  </si>
+  <si>
+    <t>level</t>
+  </si>
+  <si>
     <t>name</t>
   </si>
   <si>
+    <t>posX</t>
+  </si>
+  <si>
+    <t>posY</t>
+  </si>
+  <si>
     <t>hp</t>
   </si>
   <si>
-    <t>serialNumber</t>
-  </si>
-  <si>
     <t>atk</t>
   </si>
   <si>
-    <t>level</t>
-  </si>
-  <si>
-    <t>posX</t>
-  </si>
-  <si>
-    <t>posY</t>
+    <t>dropParts</t>
   </si>
   <si>
     <t>EnemyRed</t>
@@ -334,19 +337,25 @@
       <c r="D1" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="E1" s="2" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>7</v>
+        <v>10</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="3">
@@ -354,13 +363,16 @@
         <v>101.0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C3" s="1">
         <v>50.0</v>
       </c>
       <c r="D3" s="2">
         <v>10.0</v>
+      </c>
+      <c r="E3" s="2">
+        <v>100.0</v>
       </c>
     </row>
     <row r="4">
@@ -368,13 +380,16 @@
         <v>102.0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C4" s="1">
         <v>100.0</v>
       </c>
       <c r="D4" s="2">
         <v>20.0</v>
+      </c>
+      <c r="E4" s="2">
+        <v>200.0</v>
       </c>
     </row>
     <row r="5">
@@ -382,13 +397,16 @@
         <v>103.0</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C5" s="2">
         <v>200.0</v>
       </c>
       <c r="D5" s="2">
         <v>40.0</v>
+      </c>
+      <c r="E5" s="2">
+        <v>500.0</v>
       </c>
     </row>
   </sheetData>
@@ -424,20 +442,20 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>8</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -558,20 +576,20 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>8</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="3">

--- a/Assets/SaveData/ExcelFiles/EnemyInfo.xlsx
+++ b/Assets/SaveData/ExcelFiles/EnemyInfo.xlsx
@@ -6,6 +6,10 @@
     <sheet state="visible" name="EnemyStatus" sheetId="1" r:id="rId4"/>
     <sheet state="visible" name="Stage_1_Enemy" sheetId="2" r:id="rId5"/>
     <sheet state="visible" name="Stage_2_Enemy" sheetId="3" r:id="rId6"/>
+    <sheet state="visible" name="Stage_3_Enemy" sheetId="4" r:id="rId7"/>
+    <sheet state="visible" name="Stage_4_Enemy" sheetId="5" r:id="rId8"/>
+    <sheet state="visible" name="Stage_5_Enemy" sheetId="6" r:id="rId9"/>
+    <sheet state="visible" name="Stage_6_Enemy" sheetId="7" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -13,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="16">
   <si>
     <t>int</t>
   </si>
@@ -30,58 +34,72 @@
     <t>serialNumber</t>
   </si>
   <si>
+    <t>name</t>
+  </si>
+  <si>
     <t>level</t>
   </si>
   <si>
-    <t>name</t>
+    <t>hp</t>
   </si>
   <si>
     <t>posX</t>
   </si>
   <si>
+    <t>atk</t>
+  </si>
+  <si>
     <t>posY</t>
   </si>
   <si>
-    <t>hp</t>
-  </si>
-  <si>
-    <t>atk</t>
-  </si>
-  <si>
     <t>dropParts</t>
   </si>
   <si>
-    <t>EnemyRed</t>
-  </si>
-  <si>
-    <t>EnemyBlue</t>
-  </si>
-  <si>
-    <t>C</t>
+    <t>Meerkat</t>
+  </si>
+  <si>
+    <t>Panther</t>
+  </si>
+  <si>
+    <t>Hedgehog</t>
+  </si>
+  <si>
+    <t>Griffon</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
-    <font/>
     <font>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <sz val="10.0"/>
+      <color rgb="FF222222"/>
+      <name val="Arial"/>
+    </font>
+    <font/>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="lightGray"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -90,14 +108,17 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -117,6 +138,22 @@
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -325,58 +362,58 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="2" t="s">
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="2" t="s">
+      <c r="B2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>10</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2">
-        <v>101.0</v>
-      </c>
-      <c r="B3" s="1" t="s">
+      <c r="A3" s="1">
+        <v>101.0</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C3" s="1">
         <v>50.0</v>
       </c>
-      <c r="D3" s="2">
-        <v>10.0</v>
-      </c>
-      <c r="E3" s="2">
-        <v>100.0</v>
+      <c r="D3" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="E3" s="1">
+        <v>50.0</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2">
+      <c r="A4" s="1">
         <v>102.0</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -385,28 +422,45 @@
       <c r="C4" s="1">
         <v>100.0</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="E4" s="1">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1">
+        <v>103.0</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="1">
+        <v>200.0</v>
+      </c>
+      <c r="D5" s="1">
+        <v>100.0</v>
+      </c>
+      <c r="E5" s="1">
+        <v>150.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1">
+        <v>201.0</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="1">
+        <v>3000.0</v>
+      </c>
+      <c r="D6" s="1">
         <v>20.0</v>
       </c>
-      <c r="E4" s="2">
-        <v>200.0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2">
-        <v>103.0</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="2">
-        <v>200.0</v>
-      </c>
-      <c r="D5" s="2">
-        <v>40.0</v>
-      </c>
-      <c r="E5" s="2">
-        <v>500.0</v>
+      <c r="E6" s="1">
+        <v>1000.0</v>
       </c>
     </row>
   </sheetData>
@@ -428,16 +482,16 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="2" t="s">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
@@ -445,27 +499,27 @@
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="2" t="s">
+      <c r="C2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>8</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1">
         <v>1.0</v>
       </c>
-      <c r="B3" s="2">
-        <v>101.0</v>
-      </c>
-      <c r="C3" s="2">
+      <c r="B3" s="1">
+        <v>101.0</v>
+      </c>
+      <c r="C3" s="1">
         <v>1.0</v>
       </c>
       <c r="D3" s="1">
@@ -479,10 +533,10 @@
       <c r="A4" s="1">
         <v>2.0</v>
       </c>
-      <c r="B4" s="2">
-        <v>101.0</v>
-      </c>
-      <c r="C4" s="2">
+      <c r="B4" s="1">
+        <v>101.0</v>
+      </c>
+      <c r="C4" s="1">
         <v>1.0</v>
       </c>
       <c r="D4" s="1">
@@ -496,10 +550,10 @@
       <c r="A5" s="1">
         <v>3.0</v>
       </c>
-      <c r="B5" s="2">
-        <v>101.0</v>
-      </c>
-      <c r="C5" s="2">
+      <c r="B5" s="1">
+        <v>101.0</v>
+      </c>
+      <c r="C5" s="1">
         <v>1.0</v>
       </c>
       <c r="D5" s="1">
@@ -513,13 +567,13 @@
       <c r="A6" s="1">
         <v>4.0</v>
       </c>
-      <c r="B6" s="2">
-        <v>101.0</v>
-      </c>
-      <c r="C6" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="D6" s="2">
+      <c r="B6" s="1">
+        <v>101.0</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D6" s="1">
         <v>2.0</v>
       </c>
       <c r="E6" s="1">
@@ -530,10 +584,10 @@
       <c r="A7" s="1">
         <v>5.0</v>
       </c>
-      <c r="B7" s="2">
-        <v>101.0</v>
-      </c>
-      <c r="C7" s="2">
+      <c r="B7" s="1">
+        <v>101.0</v>
+      </c>
+      <c r="C7" s="1">
         <v>1.0</v>
       </c>
       <c r="D7" s="1">
@@ -562,16 +616,16 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="2" t="s">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
@@ -579,17 +633,17 @@
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="2" t="s">
+      <c r="C2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>8</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -599,7 +653,7 @@
       <c r="B3" s="1">
         <v>101.0</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="1">
         <v>1.0</v>
       </c>
       <c r="D3" s="1">
@@ -616,7 +670,7 @@
       <c r="B4" s="1">
         <v>101.0</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="1">
         <v>1.0</v>
       </c>
       <c r="D4" s="1">
@@ -633,7 +687,7 @@
       <c r="B5" s="1">
         <v>101.0</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="1">
         <v>1.0</v>
       </c>
       <c r="D5" s="1">
@@ -650,7 +704,7 @@
       <c r="B6" s="1">
         <v>102.0</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="1">
         <v>1.0</v>
       </c>
       <c r="D6" s="1">
@@ -667,13 +721,549 @@
       <c r="B7" s="1">
         <v>102.0</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="1">
         <v>1.0</v>
       </c>
       <c r="D7" s="1">
         <v>4.0</v>
       </c>
       <c r="E7" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="B3" s="1">
+        <v>101.0</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D3" s="1">
+        <v>-4.0</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="B4" s="1">
+        <v>101.0</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D4" s="1">
+        <v>-2.0</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="B5" s="1">
+        <v>101.0</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="B6" s="1">
+        <v>101.0</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D6" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="B7" s="1">
+        <v>101.0</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D7" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="B8" s="1">
+        <v>103.0</v>
+      </c>
+      <c r="C8" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D8" s="1">
+        <v>-4.0</v>
+      </c>
+      <c r="E8" s="1">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="B9" s="1">
+        <v>101.0</v>
+      </c>
+      <c r="C9" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D9" s="1">
+        <v>-2.0</v>
+      </c>
+      <c r="E9" s="1">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="B10" s="1">
+        <v>101.0</v>
+      </c>
+      <c r="C10" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="E10" s="1">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="B11" s="1">
+        <v>101.0</v>
+      </c>
+      <c r="C11" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D11" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="E11" s="1">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="B12" s="1">
+        <v>103.0</v>
+      </c>
+      <c r="C12" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D12" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="E12" s="1">
+        <v>2.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="B3" s="1">
+        <v>103.0</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D3" s="1">
+        <v>-4.0</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="B4" s="1">
+        <v>102.0</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D4" s="1">
+        <v>-2.0</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="B5" s="1">
+        <v>103.0</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="B6" s="1">
+        <v>103.0</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D6" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="B7" s="1">
+        <v>102.0</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D7" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="B8" s="1">
+        <v>103.0</v>
+      </c>
+      <c r="C8" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D8" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="B3" s="1">
+        <v>201.0</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="B3" s="1">
+        <v>201.0</v>
+      </c>
+      <c r="C3" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="D3" s="3">
+        <v>-5.0</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="B4" s="1">
+        <v>201.0</v>
+      </c>
+      <c r="C4" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="B5" s="1">
+        <v>201.0</v>
+      </c>
+      <c r="C5" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="D5" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="E5" s="1">
         <v>0.0</v>
       </c>
     </row>
